--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\australia_address_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A31F1-C046-46EB-88A6-F8A39B1CDC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D579AD93-44B6-47C5-A793-D7B6567AE476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>PO BOX 4361
 DANDENONG SOUTH VIC 3164</t>
@@ -256,9 +256,6 @@
     <t>1)https://www.npmjs.com/package/australia-address-parser</t>
   </si>
   <si>
-    <t>Uipath Integration</t>
-  </si>
-  <si>
     <t>3)https://pypi.org/project/au-address-parser/</t>
   </si>
   <si>
@@ -328,13 +325,40 @@
   </si>
   <si>
     <t>18 763 207 880</t>
+  </si>
+  <si>
+    <t>Uipath API Integration</t>
+  </si>
+  <si>
+    <t>works but issue with postal code and has issue with actual address parsing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmaps with uipath </t>
+  </si>
+  <si>
+    <t>AddressNet (Recurrent Convolution Network)</t>
+  </si>
+  <si>
+    <t>This is a deep Learning Library uses google tensorflow library which requires good cpu/gpu for computation.</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/addressnet-how-to-build-a-robust-street-address-parser-using-a-recurrent-neural-network-518d97b9aebd</t>
+  </si>
+  <si>
+    <t>N/A (regex) implemenhttps://address-parser.net/documentation/documentation.phptation</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11160192/how-to-parse-freeform-street-postal-address-out-of-text-and-into-components</t>
+  </si>
+  <si>
+    <t>python geopy library</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +374,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +402,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -469,27 +507,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -499,20 +523,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,24 +864,28 @@
     <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="88.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -832,609 +896,741 @@
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="18"/>
-      <c r="I4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="18"/>
-      <c r="I5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="18"/>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="B29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="19"/>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="G3:G22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G28:G32"/>
+  <mergeCells count="10">
     <mergeCell ref="D23:D27"/>
     <mergeCell ref="D3:D22"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F3:F34"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="I3:I34"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{109F869D-641D-4518-B1D4-A00D176298BA}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{AC33CA8A-B1D1-4778-8DA1-978A5153C356}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>